--- a/data/trans_camb/P23_3_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P23_3_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,59</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3,28</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,87</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,82</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,49</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>3,41</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>3,32</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 2,76</t>
+          <t>-5,56; 4,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 4,62</t>
+          <t>-4,96; 5,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 6,17</t>
+          <t>-3,94; 6,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 2,34</t>
+          <t>-0,74; 9,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 1,87</t>
+          <t>-1,43; 8,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 4,81</t>
+          <t>-4,89; 2,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 1,81</t>
+          <t>-5,53; 2,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 2,01</t>
+          <t>-2,75; 5,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 4,34</t>
+          <t>-1,92; 7,02</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-0,4; 7,52</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-3,96; 2,29</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-3,95; 2,19</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-2,12; 4,73</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 6,87</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,1; 6,05</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-12,26%</t>
+          <t>-3,19%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,21%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-7,1%</t>
+          <t>23,7%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-8,63%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>-6,53%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-9,49%</t>
+          <t>-9,17%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-6,55%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>13,3%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>17,46%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-4,99%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-4,73%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>8,56%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>18,11%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>17,51%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-36,77; 17,79</t>
+          <t>-29,63; 33,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-32,67; 31,07</t>
+          <t>-26,44; 37,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,67; 41,71</t>
+          <t>-20,84; 45,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-26,31; 14,52</t>
+          <t>-3,81; 59,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-27,56; 12,25</t>
+          <t>-6,26; 50,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,9; 29,31</t>
+          <t>-24,31; 18,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-25,22; 11,1</t>
+          <t>-28,61; 13,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-23,35; 12,6</t>
+          <t>-13,63; 38,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 27,18</t>
+          <t>-8,5; 40,36</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-1,7; 46,22</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-20,43; 14,77</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-20,83; 13,73</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-11,47; 28,94</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-0,28; 40,28</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0,42; 34,12</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,44</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-6,23</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-3,37</t>
+          <t>-2,74</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-1,55</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-2,01</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-3,86</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-1,64</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,46</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,53</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 3,84</t>
+          <t>-6,45; 3,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 4,34</t>
+          <t>-6,08; 3,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 7,73</t>
+          <t>-5,35; 4,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 3,2</t>
+          <t>-2,55; 10,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,19; -1,0</t>
+          <t>-5,95; 9,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 7,76</t>
+          <t>-7,46; 2,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 1,75</t>
+          <t>-10,85; -2,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,0; -0,14</t>
+          <t>-7,64; 2,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 5,28</t>
+          <t>-5,19; 8,2</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-8,62; 6,92</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-5,66; 1,47</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-7,05; -0,43</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-4,98; 2,15</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 7,05</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-4,73; 6,18</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-9,37%</t>
+          <t>-10,56%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-7,68%</t>
+          <t>-8,69%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>-2,66%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-7,55%</t>
+          <t>24,04%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-27,73%</t>
+          <t>13,62%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>-11,01%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-8,46%</t>
+          <t>-30,44%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-18,83%</t>
+          <t>-13,41%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>5,86%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-7,61%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-10,91%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-20,95%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-8,87%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>14,64%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>2,81%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-34,98; 28,32</t>
+          <t>-34,72; 23,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-33,6; 33,33</t>
+          <t>-32,46; 28,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-28,73; 54,93</t>
+          <t>-29,68; 33,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-29,43; 19,16</t>
+          <t>-14,47; 73,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,29; -5,85</t>
+          <t>-29,79; 65,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,17; 43,55</t>
+          <t>-32,59; 13,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,8; 10,59</t>
+          <t>-46,53; -10,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-34,46; -0,39</t>
+          <t>-33,61; 16,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-18,41; 30,54</t>
+          <t>-27,31; 53,58</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-37,29; 42,88</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-27,47; 9,95</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-35,5; -2,38</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-25,33; 13,04</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-9,38; 47,2</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-22,41; 39,24</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,11</t>
+          <t>-4,78</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,85</t>
+          <t>-4,18</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>1,64</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,29</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>-0,59</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-4,73</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-1,98</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-1,94</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-3,9</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-2,73</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-4,48</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-0,21</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 5,82</t>
+          <t>-14,49; 4,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,6; 6,48</t>
+          <t>-13,05; 5,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-9,9; 13,27</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-8,46; 8,52</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,25; 3,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-8,39; 8,02</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-13,09; 2,62</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-10,18; 6,84</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-8,16; 4,43</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-10,04; 2,25</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-8,41; 3,62</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-10,41; 1,47</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-6,65; 7,78</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-21,68%</t>
+          <t>-24,36%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-20,3%</t>
+          <t>-21,33%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>8,36%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,93%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-26,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>-3,72%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-29,67%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-12,44%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-11,36%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-22,9%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-15,32%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-25,17%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-1,15%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-54,11; 42,76</t>
+          <t>-56,31; 29,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-53,27; 55,27</t>
+          <t>-53,01; 44,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-39,86; 88,6</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-41,29; 79,55</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-58,15; 35,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-42,83; 81,16</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-62,78; 25,67</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-52,29; 63,7</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-39,12; 33,91</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-49,01; 16,69</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-40,35; 25,41</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-49,92; 9,4</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-30,99; 54,87</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,13</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,33</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,35</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>3,17</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2,22</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-1,53</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-2,44</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>3,66</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2,66</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 1,16</t>
+          <t>-4,5; 2,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 1,89</t>
+          <t>-4,24; 2,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 5,21</t>
+          <t>-2,78; 4,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 1,49</t>
+          <t>0,63; 7,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,12; -0,73</t>
+          <t>-0,6; 7,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 4,24</t>
+          <t>-4,36; 1,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 0,82</t>
+          <t>-6,63; -1,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,57; -0,03</t>
+          <t>-4,0; 2,45</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 3,46</t>
+          <t>-0,42; 6,58</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-1,32; 5,6</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-3,85; 0,75</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-4,53; -0,31</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-2,31; 2,27</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>0,71; 6,04</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-0,02; 5,34</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-12,41%</t>
+          <t>-9,02%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-7,6%</t>
+          <t>-6,08%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-6,59%</t>
+          <t>23,63%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-18,24%</t>
+          <t>16,62%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>-8,28%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-9,3%</t>
+          <t>-20,19%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-13,24%</t>
+          <t>-2,88%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>17,46%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>11,64%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-8,59%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-13,67%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0,32%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>20,45%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>14,08%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-28,98; 7,87</t>
+          <t>-24,79; 13,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-26,76; 12,81</t>
+          <t>-23,21; 17,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,35; 34,15</t>
+          <t>-14,79; 27,04</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-22,0; 8,63</t>
+          <t>3,22; 47,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-30,79; -4,3</t>
+          <t>-3,16; 40,89</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-12,29; 24,57</t>
+          <t>-21,13; 8,45</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-20,21; 4,86</t>
+          <t>-31,83; -5,2</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-23,99; -0,16</t>
+          <t>-20,18; 13,41</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 20,44</t>
+          <t>-2,34; 39,78</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-6,3; 31,68</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-20,26; 4,43</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-24,0; -1,9</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-12,29; 13,42</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>3,92; 36,19</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 30,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
